--- a/system_data.xlsx
+++ b/system_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SystemData" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NarrativeData" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,11 +451,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Initializing system components with detailed logging and context management.</t>
+          <t>Starting main narrative control process.</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Thoughts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Insight 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Detail 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Insight 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Detail 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/system_data.xlsx
+++ b/system_data.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SystemData" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NarrativeData" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,94 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A5:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thought Process</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Starting main narrative control process.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Thoughts</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Insight 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Detail 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Insight 2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Detail 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>